--- a/Mifos Automation Excels/Client/3515-RBI-EI-DB-DL-REC-NON-RNI-CTPD-DL-MD-TR-1-PERIODIC-OVERDUE-FEE-FLAT-PENALTY-FRE-1-Makerepayment1.xlsx
+++ b/Mifos Automation Excels/Client/3515-RBI-EI-DB-DL-REC-NON-RNI-CTPD-DL-MD-TR-1-PERIODIC-OVERDUE-FEE-FLAT-PENALTY-FRE-1-Makerepayment1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="7755" tabRatio="678" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="7755" tabRatio="678" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Input" sheetId="5" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="64">
   <si>
     <t>#</t>
   </si>
@@ -145,61 +145,73 @@
     <t>Repayment</t>
   </si>
   <si>
+    <t>Interest Receivable(3)</t>
+  </si>
+  <si>
+    <t>clickonmakerepayment</t>
+  </si>
+  <si>
+    <t>makerepayment</t>
+  </si>
+  <si>
+    <t>repaymenttransactiondate</t>
+  </si>
+  <si>
+    <t>INCOME</t>
+  </si>
+  <si>
+    <t>Income from interest(7)</t>
+  </si>
+  <si>
+    <t>system</t>
+  </si>
+  <si>
+    <t>$ 101.92</t>
+  </si>
+  <si>
     <t>L7</t>
   </si>
   <si>
-    <t>$ 10,000</t>
-  </si>
-  <si>
-    <t>Interest Receivable(3)</t>
-  </si>
-  <si>
-    <t>$ 101.92</t>
-  </si>
-  <si>
-    <t>clickonmakerepayment</t>
-  </si>
-  <si>
-    <t>makerepayment</t>
-  </si>
-  <si>
-    <t>repaymenttransactiondate</t>
-  </si>
-  <si>
-    <t>INCOME</t>
-  </si>
-  <si>
-    <t>Income from interest(7)</t>
-  </si>
-  <si>
-    <t>$ 84.82</t>
-  </si>
-  <si>
-    <t>$ 93.91</t>
-  </si>
-  <si>
-    <t>$ 987.72</t>
-  </si>
-  <si>
-    <t>L65</t>
-  </si>
-  <si>
-    <t>L64</t>
-  </si>
-  <si>
-    <t>system</t>
-  </si>
-  <si>
-    <t>L66</t>
-  </si>
-  <si>
-    <t>L67</t>
-  </si>
-  <si>
-    <t>$ 885.8</t>
-  </si>
-  <si>
-    <t>$ 101.92</t>
+    <t>$ 10,000</t>
+  </si>
+  <si>
+    <t>L1564</t>
+  </si>
+  <si>
+    <t>Penalties Receivable(5)</t>
+  </si>
+  <si>
+    <t>$ 100</t>
+  </si>
+  <si>
+    <t>$ 785.8</t>
+  </si>
+  <si>
+    <t>$ 987.72</t>
+  </si>
+  <si>
+    <t>L1561</t>
+  </si>
+  <si>
+    <t>Income from penalties(9)</t>
+  </si>
+  <si>
+    <t>L1565</t>
+  </si>
+  <si>
+    <t>$ 84.82</t>
+  </si>
+  <si>
+    <t>$ 2,900</t>
+  </si>
+  <si>
+    <t>L1566</t>
+  </si>
+  <si>
+    <t>$ 93.91</t>
+  </si>
+  <si>
+    <t>$ 5,400</t>
   </si>
 </sst>
 </file>
@@ -306,7 +318,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -339,9 +351,33 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -654,15 +690,15 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B2" s="14">
         <v>42036</v>
@@ -1467,8 +1503,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:XFD14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1520,7 +1556,7 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="7">
-        <v>67</v>
+        <v>1566</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>27</v>
@@ -1531,8 +1567,8 @@
       <c r="D2" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="E2" s="7">
-        <v>93.91</v>
+      <c r="E2" s="10">
+        <v>5493.91</v>
       </c>
       <c r="F2" s="7">
         <v>0</v>
@@ -1543,8 +1579,8 @@
       <c r="H2" s="7">
         <v>0</v>
       </c>
-      <c r="I2" s="7">
-        <v>0</v>
+      <c r="I2" s="9">
+        <v>5400</v>
       </c>
       <c r="J2" s="7">
         <v>0</v>
@@ -1554,7 +1590,7 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
-        <v>66</v>
+        <v>1565</v>
       </c>
       <c r="B3" s="7" t="s">
         <v>27</v>
@@ -1565,8 +1601,8 @@
       <c r="D3" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="E3" s="7">
-        <v>84.82</v>
+      <c r="E3" s="10">
+        <v>2984.82</v>
       </c>
       <c r="F3" s="7">
         <v>0</v>
@@ -1577,8 +1613,8 @@
       <c r="H3" s="7">
         <v>0</v>
       </c>
-      <c r="I3" s="7">
-        <v>0</v>
+      <c r="I3" s="9">
+        <v>2900</v>
       </c>
       <c r="J3" s="7">
         <v>0</v>
@@ -1588,7 +1624,7 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
-        <v>65</v>
+        <v>1564</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>27</v>
@@ -1603,7 +1639,7 @@
         <v>987.72</v>
       </c>
       <c r="F4" s="7">
-        <v>885.8</v>
+        <v>785.8</v>
       </c>
       <c r="G4" s="7">
         <v>101.92</v>
@@ -1612,17 +1648,17 @@
         <v>0</v>
       </c>
       <c r="I4" s="7">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J4" s="10">
-        <v>9114.2000000000007</v>
+        <v>9214.2000000000007</v>
       </c>
       <c r="K4" s="11"/>
       <c r="L4" s="11"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
-        <v>62</v>
+        <v>1561</v>
       </c>
       <c r="B5" s="7" t="s">
         <v>27</v>
@@ -1656,7 +1692,7 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
-        <v>59</v>
+        <v>1560</v>
       </c>
       <c r="B6" s="7" t="s">
         <v>27</v>
@@ -1695,10 +1731,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:J3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1706,7 +1742,7 @@
     <col min="7" max="7" width="17.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>28</v>
       </c>
@@ -1735,7 +1771,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="12">
         <v>13</v>
       </c>
@@ -1746,7 +1782,7 @@
         <v>42005</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="E2" s="12" t="s">
         <v>36</v>
@@ -1758,12 +1794,11 @@
         <v>38</v>
       </c>
       <c r="H2" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+      <c r="I2" s="16"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="12">
         <v>14</v>
       </c>
@@ -1774,7 +1809,7 @@
         <v>42005</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="E3" s="12" t="s">
         <v>36</v>
@@ -1787,21 +1822,21 @@
       </c>
       <c r="H3" s="12"/>
       <c r="I3" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="J3" s="12"/>
+        <v>50</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:I4"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1846,85 +1881,112 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="12">
-        <v>93</v>
-      </c>
-      <c r="B2" s="12" t="s">
+      <c r="A2" s="18">
+        <v>2582</v>
+      </c>
+      <c r="B2" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="13">
+      <c r="C2" s="19">
         <v>42036</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="E2" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="F2" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="G2" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="H2" s="17"/>
+      <c r="I2" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="E2" s="12" t="s">
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="18">
+        <v>2583</v>
+      </c>
+      <c r="B3" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="19">
+        <v>42036</v>
+      </c>
+      <c r="D3" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="E3" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="F2" s="12" t="s">
+      <c r="F3" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="G2" s="12" t="s">
+      <c r="G3" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="H3" s="17"/>
+      <c r="I3" s="18" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="18">
+        <v>2584</v>
+      </c>
+      <c r="B4" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="19">
+        <v>42036</v>
+      </c>
+      <c r="D4" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="E4" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="F4" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="G4" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="H2" s="12"/>
-      <c r="I2" s="16" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="12">
-        <v>94</v>
-      </c>
-      <c r="B3" s="12" t="s">
+      <c r="H4" s="17"/>
+      <c r="I4" s="18" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="18">
+        <v>2585</v>
+      </c>
+      <c r="B5" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="13">
+      <c r="C5" s="19">
         <v>42036</v>
       </c>
-      <c r="D3" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="E3" s="12" t="s">
+      <c r="D5" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="E5" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="F3" s="12" t="s">
+      <c r="F5" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="G3" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="H3" s="12"/>
-      <c r="I3" s="16" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="12">
-        <v>95</v>
-      </c>
-      <c r="B4" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="C4" s="13">
-        <v>42036</v>
-      </c>
-      <c r="D4" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="E4" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="F4" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="G4" s="12" t="s">
+      <c r="G5" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="H4" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="I4" s="12"/>
+      <c r="H5" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="I5" s="17"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1933,10 +1995,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I11"/>
+  <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H13" sqref="H13:I15"/>
+      <selection activeCell="A12" sqref="A12:I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1980,211 +2042,327 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="12">
-        <v>85</v>
-      </c>
-      <c r="B2" s="12" t="s">
+      <c r="A2" s="20">
+        <v>2562</v>
+      </c>
+      <c r="B2" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="13">
+      <c r="C2" s="21">
+        <v>42036</v>
+      </c>
+      <c r="D2" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="E2" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="F2" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="G2" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="H2" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="I2" s="4"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="20">
+        <v>2563</v>
+      </c>
+      <c r="B3" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="21">
+        <v>42036</v>
+      </c>
+      <c r="D3" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="E3" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="F3" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="G3" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" s="4"/>
+      <c r="I3" s="20" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="20">
+        <v>2564</v>
+      </c>
+      <c r="B4" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="21">
+        <v>42036</v>
+      </c>
+      <c r="D4" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="E4" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="F4" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="G4" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="H4" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="I4" s="4"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="20">
+        <v>2565</v>
+      </c>
+      <c r="B5" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="21">
+        <v>42036</v>
+      </c>
+      <c r="D5" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="E5" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="F5" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="G5" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="H5" s="4"/>
+      <c r="I5" s="20" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="22">
+        <v>2586</v>
+      </c>
+      <c r="B7" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="23">
+        <v>42064</v>
+      </c>
+      <c r="D7" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="E7" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="F7" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="G7" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="H7" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="I7" s="4"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="22">
+        <v>2587</v>
+      </c>
+      <c r="B8" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" s="23">
+        <v>42064</v>
+      </c>
+      <c r="D8" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="E8" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="F8" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="G8" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" s="4"/>
+      <c r="I8" s="22" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="22">
+        <v>2588</v>
+      </c>
+      <c r="B9" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" s="23">
+        <v>42064</v>
+      </c>
+      <c r="D9" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="E9" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="F9" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="G9" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="H9" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="I9" s="4"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="22">
+        <v>2589</v>
+      </c>
+      <c r="B10" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" s="23">
+        <v>42064</v>
+      </c>
+      <c r="D10" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="E10" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="F10" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="G10" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="H10" s="4"/>
+      <c r="I10" s="22" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="24">
+        <v>2590</v>
+      </c>
+      <c r="B12" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" s="25">
         <v>42095</v>
       </c>
-      <c r="D2" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="E2" s="12" t="s">
+      <c r="D12" s="24" t="s">
+        <v>61</v>
+      </c>
+      <c r="E12" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="F2" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="G2" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="H2" s="12" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="12">
-        <v>86</v>
-      </c>
-      <c r="B3" s="12" t="s">
+      <c r="F12" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="G12" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="H12" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="I12" s="26"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="24">
+        <v>2591</v>
+      </c>
+      <c r="B13" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="13">
+      <c r="C13" s="25">
         <v>42095</v>
       </c>
-      <c r="D3" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="E3" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="F3" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="G3" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="I3" s="12" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="12">
-        <v>91</v>
-      </c>
-      <c r="B4" s="12" t="s">
+      <c r="D13" s="24" t="s">
+        <v>61</v>
+      </c>
+      <c r="E13" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="F13" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="G13" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" s="26"/>
+      <c r="I13" s="24" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="24">
+        <v>2592</v>
+      </c>
+      <c r="B14" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="13">
+      <c r="C14" s="25">
         <v>42095</v>
       </c>
-      <c r="D4" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="E4" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="F4" s="12" t="s">
+      <c r="D14" s="24" t="s">
+        <v>61</v>
+      </c>
+      <c r="E14" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="F14" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="G4" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="H4" s="12" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="12">
-        <v>92</v>
-      </c>
-      <c r="B5" s="12" t="s">
+      <c r="G14" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="H14" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="I14" s="26"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="24">
+        <v>2593</v>
+      </c>
+      <c r="B15" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="C5" s="13">
+      <c r="C15" s="25">
         <v>42095</v>
       </c>
-      <c r="D5" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="E5" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="F5" s="12" t="s">
+      <c r="D15" s="24" t="s">
+        <v>61</v>
+      </c>
+      <c r="E15" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="F15" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="G5" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="I5" s="12" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="12">
-        <v>96</v>
-      </c>
-      <c r="B7" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="C7" s="13">
-        <v>42064</v>
-      </c>
-      <c r="D7" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="E7" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="F7" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="G7" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="H7" s="12" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="12">
-        <v>97</v>
-      </c>
-      <c r="B8" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="C8" s="13">
-        <v>42064</v>
-      </c>
-      <c r="D8" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="E8" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="F8" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="G8" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="I8" s="12" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="12">
-        <v>98</v>
-      </c>
-      <c r="B10" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="C10" s="13">
-        <v>42095</v>
-      </c>
-      <c r="D10" s="12" t="s">
+      <c r="G15" s="24" t="s">
         <v>57</v>
       </c>
-      <c r="E10" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="F10" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="G10" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="H10" s="12" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="12">
-        <v>99</v>
-      </c>
-      <c r="B11" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="C11" s="13">
-        <v>42095</v>
-      </c>
-      <c r="D11" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="E11" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="F11" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="G11" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="I11" s="12" t="s">
-        <v>51</v>
+      <c r="H15" s="26"/>
+      <c r="I15" s="24" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>

--- a/Mifos Automation Excels/Client/3515-RBI-EI-DB-DL-REC-NON-RNI-CTPD-DL-MD-TR-1-PERIODIC-OVERDUE-FEE-FLAT-PENALTY-FRE-1-Makerepayment1.xlsx
+++ b/Mifos Automation Excels/Client/3515-RBI-EI-DB-DL-REC-NON-RNI-CTPD-DL-MD-TR-1-PERIODIC-OVERDUE-FEE-FLAT-PENALTY-FRE-1-Makerepayment1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="7755" tabRatio="678" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="7755" tabRatio="678" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Input" sheetId="5" r:id="rId1"/>
@@ -145,6 +145,9 @@
     <t>Repayment</t>
   </si>
   <si>
+    <t>L7</t>
+  </si>
+  <si>
     <t>Interest Receivable(3)</t>
   </si>
   <si>
@@ -166,46 +169,43 @@
     <t>system</t>
   </si>
   <si>
+    <t>L97</t>
+  </si>
+  <si>
+    <t>Penalties Receivable(5)</t>
+  </si>
+  <si>
+    <t>L94</t>
+  </si>
+  <si>
+    <t>Income from penalties(9)</t>
+  </si>
+  <si>
+    <t>L98</t>
+  </si>
+  <si>
+    <t>L99</t>
+  </si>
+  <si>
+    <t>$ 10,000</t>
+  </si>
+  <si>
+    <t>$ 100</t>
+  </si>
+  <si>
     <t>$ 101.92</t>
   </si>
   <si>
-    <t>L7</t>
-  </si>
-  <si>
-    <t>$ 10,000</t>
-  </si>
-  <si>
-    <t>L1564</t>
-  </si>
-  <si>
-    <t>Penalties Receivable(5)</t>
-  </si>
-  <si>
-    <t>$ 100</t>
-  </si>
-  <si>
     <t>$ 785.8</t>
   </si>
   <si>
     <t>$ 987.72</t>
   </si>
   <si>
-    <t>L1561</t>
-  </si>
-  <si>
-    <t>Income from penalties(9)</t>
-  </si>
-  <si>
-    <t>L1565</t>
-  </si>
-  <si>
     <t>$ 84.82</t>
   </si>
   <si>
     <t>$ 2,900</t>
-  </si>
-  <si>
-    <t>L1566</t>
   </si>
   <si>
     <t>$ 93.91</t>
@@ -318,7 +318,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -351,7 +351,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -359,25 +364,8 @@
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -690,15 +678,15 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B2" s="14">
         <v>42036</v>
@@ -714,7 +702,7 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -753,23 +741,23 @@
         <v>10000</v>
       </c>
       <c r="B2" s="7">
-        <v>885.8</v>
+        <v>785.8</v>
       </c>
       <c r="C2" s="7"/>
       <c r="D2" s="7">
         <v>0</v>
       </c>
       <c r="E2" s="10">
-        <v>9114.2000000000007</v>
+        <v>9214.2000000000007</v>
       </c>
       <c r="F2" s="7">
-        <v>803.82</v>
+        <v>802.9</v>
       </c>
       <c r="G2"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
-        <v>656.87</v>
+        <v>668.41</v>
       </c>
       <c r="B3" s="7">
         <v>101.92</v>
@@ -781,10 +769,10 @@
         <v>0</v>
       </c>
       <c r="E3" s="7">
-        <v>554.95000000000005</v>
+        <v>566.49</v>
       </c>
       <c r="F3" s="7">
-        <v>83.9</v>
+        <v>84.82</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -808,11 +796,11 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="7">
-        <v>0</v>
+      <c r="A5" s="9">
+        <v>8400</v>
       </c>
       <c r="B5" s="7">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C5" s="7">
         <v>0</v>
@@ -820,11 +808,11 @@
       <c r="D5" s="7">
         <v>0</v>
       </c>
-      <c r="E5" s="7">
-        <v>0</v>
-      </c>
-      <c r="F5" s="7">
-        <v>0</v>
+      <c r="E5" s="9">
+        <v>8300</v>
+      </c>
+      <c r="F5" s="9">
+        <v>2900</v>
       </c>
     </row>
   </sheetData>
@@ -838,7 +826,7 @@
   <dimension ref="A1:P14"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:P14"/>
+      <selection activeCell="A15" sqref="A15:XFD15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -954,10 +942,10 @@
       </c>
       <c r="E3" s="11"/>
       <c r="F3" s="7">
-        <v>885.8</v>
+        <v>785.8</v>
       </c>
       <c r="G3" s="10">
-        <v>9114.2000000000007</v>
+        <v>9214.2000000000007</v>
       </c>
       <c r="H3" s="7">
         <v>101.92</v>
@@ -966,7 +954,7 @@
         <v>0</v>
       </c>
       <c r="J3" s="7">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K3" s="7">
         <v>987.72</v>
@@ -1000,22 +988,22 @@
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
       <c r="F4" s="7">
-        <v>803.82</v>
+        <v>802.9</v>
       </c>
       <c r="G4" s="10">
-        <v>8310.3799999999992</v>
+        <v>8411.2999999999993</v>
       </c>
       <c r="H4" s="7">
-        <v>83.9</v>
+        <v>84.82</v>
       </c>
       <c r="I4" s="7">
         <v>0</v>
       </c>
-      <c r="J4" s="7">
-        <v>0</v>
-      </c>
-      <c r="K4" s="7">
-        <v>887.72</v>
+      <c r="J4" s="9">
+        <v>2900</v>
+      </c>
+      <c r="K4" s="10">
+        <v>3787.72</v>
       </c>
       <c r="L4" s="7">
         <v>0</v>
@@ -1029,8 +1017,8 @@
       <c r="O4" s="7">
         <v>0</v>
       </c>
-      <c r="P4" s="7">
-        <v>887.72</v>
+      <c r="P4" s="10">
+        <v>3787.72</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
@@ -1046,22 +1034,22 @@
       <c r="D5" s="7"/>
       <c r="E5" s="7"/>
       <c r="F5" s="7">
-        <v>794.83</v>
+        <v>793.81</v>
       </c>
       <c r="G5" s="10">
-        <v>7515.55</v>
+        <v>7617.49</v>
       </c>
       <c r="H5" s="7">
-        <v>92.89</v>
+        <v>93.91</v>
       </c>
       <c r="I5" s="7">
         <v>0</v>
       </c>
-      <c r="J5" s="7">
-        <v>0</v>
-      </c>
-      <c r="K5" s="7">
-        <v>887.72</v>
+      <c r="J5" s="9">
+        <v>5400</v>
+      </c>
+      <c r="K5" s="10">
+        <v>6287.72</v>
       </c>
       <c r="L5" s="7">
         <v>0</v>
@@ -1075,8 +1063,8 @@
       <c r="O5" s="7">
         <v>0</v>
       </c>
-      <c r="P5" s="7">
-        <v>887.72</v>
+      <c r="P5" s="10">
+        <v>6287.72</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
@@ -1092,13 +1080,13 @@
       <c r="D6" s="7"/>
       <c r="E6" s="7"/>
       <c r="F6" s="7">
-        <v>813.59</v>
+        <v>812.59</v>
       </c>
       <c r="G6" s="10">
-        <v>6701.96</v>
+        <v>6804.9</v>
       </c>
       <c r="H6" s="7">
-        <v>74.13</v>
+        <v>75.13</v>
       </c>
       <c r="I6" s="7">
         <v>0</v>
@@ -1138,13 +1126,13 @@
       <c r="D7" s="7"/>
       <c r="E7" s="7"/>
       <c r="F7" s="7">
-        <v>819.42</v>
+        <v>818.37</v>
       </c>
       <c r="G7" s="10">
-        <v>5882.54</v>
+        <v>5986.53</v>
       </c>
       <c r="H7" s="7">
-        <v>68.3</v>
+        <v>69.349999999999994</v>
       </c>
       <c r="I7" s="7">
         <v>0</v>
@@ -1184,13 +1172,13 @@
       <c r="D8" s="7"/>
       <c r="E8" s="7"/>
       <c r="F8" s="7">
-        <v>829.7</v>
+        <v>828.67</v>
       </c>
       <c r="G8" s="10">
-        <v>5052.84</v>
+        <v>5157.8599999999997</v>
       </c>
       <c r="H8" s="7">
-        <v>58.02</v>
+        <v>59.05</v>
       </c>
       <c r="I8" s="7">
         <v>0</v>
@@ -1230,13 +1218,13 @@
       <c r="D9" s="7"/>
       <c r="E9" s="7"/>
       <c r="F9" s="7">
-        <v>836.22</v>
+        <v>835.15</v>
       </c>
       <c r="G9" s="10">
-        <v>4216.62</v>
+        <v>4322.71</v>
       </c>
       <c r="H9" s="7">
-        <v>51.5</v>
+        <v>52.57</v>
       </c>
       <c r="I9" s="7">
         <v>0</v>
@@ -1276,13 +1264,13 @@
       <c r="D10" s="7"/>
       <c r="E10" s="7"/>
       <c r="F10" s="7">
-        <v>844.75</v>
+        <v>843.66</v>
       </c>
       <c r="G10" s="10">
-        <v>3371.87</v>
+        <v>3479.05</v>
       </c>
       <c r="H10" s="7">
-        <v>42.97</v>
+        <v>44.06</v>
       </c>
       <c r="I10" s="7">
         <v>0</v>
@@ -1322,13 +1310,13 @@
       <c r="D11" s="7"/>
       <c r="E11" s="7"/>
       <c r="F11" s="7">
-        <v>854.46</v>
+        <v>853.41</v>
       </c>
       <c r="G11" s="10">
-        <v>2517.41</v>
+        <v>2625.64</v>
       </c>
       <c r="H11" s="7">
-        <v>33.26</v>
+        <v>34.31</v>
       </c>
       <c r="I11" s="7">
         <v>0</v>
@@ -1368,13 +1356,13 @@
       <c r="D12" s="7"/>
       <c r="E12" s="7"/>
       <c r="F12" s="7">
-        <v>862.06</v>
+        <v>860.96</v>
       </c>
       <c r="G12" s="10">
-        <v>1655.35</v>
+        <v>1764.68</v>
       </c>
       <c r="H12" s="7">
-        <v>25.66</v>
+        <v>26.76</v>
       </c>
       <c r="I12" s="7">
         <v>0</v>
@@ -1414,13 +1402,13 @@
       <c r="D13" s="7"/>
       <c r="E13" s="7"/>
       <c r="F13" s="7">
-        <v>871.39</v>
+        <v>870.31</v>
       </c>
       <c r="G13" s="7">
-        <v>783.96</v>
+        <v>894.37</v>
       </c>
       <c r="H13" s="7">
-        <v>16.329999999999998</v>
+        <v>17.41</v>
       </c>
       <c r="I13" s="7">
         <v>0</v>
@@ -1460,13 +1448,13 @@
       <c r="D14" s="7"/>
       <c r="E14" s="7"/>
       <c r="F14" s="7">
-        <v>783.96</v>
+        <v>894.37</v>
       </c>
       <c r="G14" s="7">
         <v>0</v>
       </c>
       <c r="H14" s="7">
-        <v>7.99</v>
+        <v>9.1199999999999992</v>
       </c>
       <c r="I14" s="7">
         <v>0</v>
@@ -1475,7 +1463,7 @@
         <v>0</v>
       </c>
       <c r="K14" s="7">
-        <v>791.95</v>
+        <v>903.49</v>
       </c>
       <c r="L14" s="7">
         <v>0</v>
@@ -1490,7 +1478,7 @@
         <v>0</v>
       </c>
       <c r="P14" s="7">
-        <v>791.95</v>
+        <v>903.49</v>
       </c>
     </row>
   </sheetData>
@@ -1504,7 +1492,7 @@
   <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1556,7 +1544,7 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="7">
-        <v>1566</v>
+        <v>99</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>27</v>
@@ -1590,7 +1578,7 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
-        <v>1565</v>
+        <v>98</v>
       </c>
       <c r="B3" s="7" t="s">
         <v>27</v>
@@ -1624,7 +1612,7 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
-        <v>1564</v>
+        <v>97</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>27</v>
@@ -1658,7 +1646,7 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
-        <v>1561</v>
+        <v>94</v>
       </c>
       <c r="B5" s="7" t="s">
         <v>27</v>
@@ -1692,7 +1680,7 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
-        <v>1560</v>
+        <v>91</v>
       </c>
       <c r="B6" s="7" t="s">
         <v>27</v>
@@ -1733,8 +1721,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1782,7 +1770,7 @@
         <v>42005</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="E2" s="12" t="s">
         <v>36</v>
@@ -1793,10 +1781,10 @@
       <c r="G2" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="H2" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="I2" s="16"/>
+      <c r="H2" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="I2" s="18"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="12">
@@ -1809,7 +1797,7 @@
         <v>42005</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="E3" s="12" t="s">
         <v>36</v>
@@ -1820,14 +1808,13 @@
       <c r="G3" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12" t="s">
-        <v>50</v>
+      <c r="H3" s="18"/>
+      <c r="I3" s="18" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1835,8 +1822,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1881,112 +1868,112 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="18">
-        <v>2582</v>
-      </c>
-      <c r="B2" s="18" t="s">
+      <c r="A2" s="19">
+        <v>190</v>
+      </c>
+      <c r="B2" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="19">
+      <c r="C2" s="20">
         <v>42036</v>
       </c>
-      <c r="D2" s="18" t="s">
-        <v>51</v>
-      </c>
-      <c r="E2" s="18" t="s">
+      <c r="D2" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="E2" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="F2" s="18" t="s">
+      <c r="F2" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="G2" s="18" t="s">
-        <v>52</v>
-      </c>
-      <c r="H2" s="17"/>
-      <c r="I2" s="18" t="s">
-        <v>53</v>
+      <c r="G2" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="H2" s="21"/>
+      <c r="I2" s="21" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="18">
-        <v>2583</v>
-      </c>
-      <c r="B3" s="18" t="s">
+      <c r="A3" s="19">
+        <v>191</v>
+      </c>
+      <c r="B3" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="19">
+      <c r="C3" s="20">
         <v>42036</v>
       </c>
-      <c r="D3" s="18" t="s">
-        <v>51</v>
-      </c>
-      <c r="E3" s="18" t="s">
+      <c r="D3" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="E3" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="F3" s="18" t="s">
+      <c r="F3" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="G3" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="H3" s="17"/>
-      <c r="I3" s="18" t="s">
-        <v>48</v>
+      <c r="G3" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="H3" s="21"/>
+      <c r="I3" s="21" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="18">
-        <v>2584</v>
-      </c>
-      <c r="B4" s="18" t="s">
+      <c r="A4" s="19">
+        <v>192</v>
+      </c>
+      <c r="B4" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="19">
+      <c r="C4" s="20">
         <v>42036</v>
       </c>
-      <c r="D4" s="18" t="s">
-        <v>51</v>
-      </c>
-      <c r="E4" s="18" t="s">
+      <c r="D4" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="E4" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="F4" s="18" t="s">
+      <c r="F4" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="G4" s="18" t="s">
+      <c r="G4" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="H4" s="17"/>
-      <c r="I4" s="18" t="s">
-        <v>54</v>
+      <c r="H4" s="21"/>
+      <c r="I4" s="21" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="18">
-        <v>2585</v>
-      </c>
-      <c r="B5" s="18" t="s">
+      <c r="A5" s="19">
+        <v>193</v>
+      </c>
+      <c r="B5" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="C5" s="19">
+      <c r="C5" s="20">
         <v>42036</v>
       </c>
-      <c r="D5" s="18" t="s">
-        <v>51</v>
-      </c>
-      <c r="E5" s="18" t="s">
+      <c r="D5" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="E5" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="F5" s="18" t="s">
+      <c r="F5" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="G5" s="18" t="s">
+      <c r="G5" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="H5" s="18" t="s">
-        <v>55</v>
-      </c>
-      <c r="I5" s="17"/>
+      <c r="H5" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="I5" s="21"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1998,18 +1985,20 @@
   <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:I15"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="9.140625" style="12"/>
-    <col min="3" max="3" width="9.85546875" style="12" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8" style="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" style="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.42578125" style="12" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.140625" style="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" style="12"/>
+    <col min="5" max="5" width="8.28515625" style="12" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11" style="12" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.5703125" style="12" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="12"/>
+    <col min="7" max="7" width="23.85546875" style="12" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="8" style="12" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="12"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -2042,326 +2031,331 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="20">
-        <v>2562</v>
-      </c>
-      <c r="B2" s="20" t="s">
+      <c r="A2" s="16">
+        <v>170</v>
+      </c>
+      <c r="B2" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="21">
+      <c r="C2" s="17">
         <v>42036</v>
       </c>
-      <c r="D2" s="20" t="s">
+      <c r="D2" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="E2" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="F2" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="G2" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="H2" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="I2" s="22"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="16">
+        <v>171</v>
+      </c>
+      <c r="B3" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="17">
+        <v>42036</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="E3" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="F3" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="G3" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="H3" s="22"/>
+      <c r="I3" s="22" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="16">
+        <v>172</v>
+      </c>
+      <c r="B4" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="17">
+        <v>42036</v>
+      </c>
+      <c r="D4" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="E4" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="F4" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="G4" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="H4" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="E2" s="20" t="s">
+      <c r="I4" s="22"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="16">
+        <v>173</v>
+      </c>
+      <c r="B5" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="17">
+        <v>42036</v>
+      </c>
+      <c r="D5" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="E5" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="F5" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="G5" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="H5" s="22"/>
+      <c r="I5" s="22" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="16">
+        <v>194</v>
+      </c>
+      <c r="B7" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="17">
+        <v>42064</v>
+      </c>
+      <c r="D7" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="E7" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="F2" s="20" t="s">
+      <c r="F7" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="G7" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="H7" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="I7" s="22"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="16">
+        <v>195</v>
+      </c>
+      <c r="B8" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" s="17">
+        <v>42064</v>
+      </c>
+      <c r="D8" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="E8" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="F8" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="G8" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="G2" s="20" t="s">
-        <v>41</v>
-      </c>
-      <c r="H2" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="I2" s="4"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="20">
-        <v>2563</v>
-      </c>
-      <c r="B3" s="20" t="s">
+      <c r="H8" s="22"/>
+      <c r="I8" s="22" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="16">
+        <v>196</v>
+      </c>
+      <c r="B9" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="21">
-        <v>42036</v>
-      </c>
-      <c r="D3" s="20" t="s">
-        <v>56</v>
-      </c>
-      <c r="E3" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="F3" s="20" t="s">
+      <c r="C9" s="17">
+        <v>42064</v>
+      </c>
+      <c r="D9" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="E9" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="F9" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="G9" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="H9" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="I9" s="22"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="16">
+        <v>197</v>
+      </c>
+      <c r="B10" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" s="17">
+        <v>42064</v>
+      </c>
+      <c r="D10" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="E10" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="F10" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="G10" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="H10" s="22"/>
+      <c r="I10" s="22" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C11" s="13"/>
+      <c r="H11" s="22"/>
+      <c r="I11" s="22"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="16">
+        <v>198</v>
+      </c>
+      <c r="B12" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" s="17">
+        <v>42095</v>
+      </c>
+      <c r="D12" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="E12" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="F12" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="G12" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="H12" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="I12" s="22"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="16">
+        <v>199</v>
+      </c>
+      <c r="B13" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" s="17">
+        <v>42095</v>
+      </c>
+      <c r="D13" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="E13" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="F13" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="G13" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="G3" s="20" t="s">
+      <c r="H13" s="22"/>
+      <c r="I13" s="22" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="16">
+        <v>200</v>
+      </c>
+      <c r="B14" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" s="17">
+        <v>42095</v>
+      </c>
+      <c r="D14" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="E14" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="F14" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="G14" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="H14" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="I14" s="22"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="16">
+        <v>201</v>
+      </c>
+      <c r="B15" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15" s="17">
+        <v>42095</v>
+      </c>
+      <c r="D15" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="E15" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="H3" s="4"/>
-      <c r="I3" s="20" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="20">
-        <v>2564</v>
-      </c>
-      <c r="B4" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="C4" s="21">
-        <v>42036</v>
-      </c>
-      <c r="D4" s="20" t="s">
-        <v>56</v>
-      </c>
-      <c r="E4" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="F4" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="G4" s="20" t="s">
+      <c r="F15" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="G15" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="H4" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="I4" s="4"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="20">
-        <v>2565</v>
-      </c>
-      <c r="B5" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="C5" s="21">
-        <v>42036</v>
-      </c>
-      <c r="D5" s="20" t="s">
-        <v>56</v>
-      </c>
-      <c r="E5" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="F5" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="G5" s="20" t="s">
-        <v>57</v>
-      </c>
-      <c r="H5" s="4"/>
-      <c r="I5" s="20" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="22">
-        <v>2586</v>
-      </c>
-      <c r="B7" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="C7" s="23">
-        <v>42064</v>
-      </c>
-      <c r="D7" s="22" t="s">
-        <v>58</v>
-      </c>
-      <c r="E7" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="F7" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="G7" s="22" t="s">
-        <v>41</v>
-      </c>
-      <c r="H7" s="22" t="s">
-        <v>59</v>
-      </c>
-      <c r="I7" s="4"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="22">
-        <v>2587</v>
-      </c>
-      <c r="B8" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="C8" s="23">
-        <v>42064</v>
-      </c>
-      <c r="D8" s="22" t="s">
-        <v>58</v>
-      </c>
-      <c r="E8" s="22" t="s">
-        <v>45</v>
-      </c>
-      <c r="F8" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="G8" s="22" t="s">
-        <v>46</v>
-      </c>
-      <c r="H8" s="4"/>
-      <c r="I8" s="22" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="22">
-        <v>2588</v>
-      </c>
-      <c r="B9" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="C9" s="23">
-        <v>42064</v>
-      </c>
-      <c r="D9" s="22" t="s">
-        <v>58</v>
-      </c>
-      <c r="E9" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="F9" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="G9" s="22" t="s">
-        <v>52</v>
-      </c>
-      <c r="H9" s="22" t="s">
-        <v>60</v>
-      </c>
-      <c r="I9" s="4"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="22">
-        <v>2589</v>
-      </c>
-      <c r="B10" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="C10" s="23">
-        <v>42064</v>
-      </c>
-      <c r="D10" s="22" t="s">
-        <v>58</v>
-      </c>
-      <c r="E10" s="22" t="s">
-        <v>45</v>
-      </c>
-      <c r="F10" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="G10" s="22" t="s">
-        <v>57</v>
-      </c>
-      <c r="H10" s="4"/>
-      <c r="I10" s="22" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="24">
-        <v>2590</v>
-      </c>
-      <c r="B12" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="C12" s="25">
-        <v>42095</v>
-      </c>
-      <c r="D12" s="24" t="s">
-        <v>61</v>
-      </c>
-      <c r="E12" s="24" t="s">
-        <v>36</v>
-      </c>
-      <c r="F12" s="24" t="s">
-        <v>35</v>
-      </c>
-      <c r="G12" s="24" t="s">
-        <v>41</v>
-      </c>
-      <c r="H12" s="24" t="s">
-        <v>62</v>
-      </c>
-      <c r="I12" s="26"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="24">
-        <v>2591</v>
-      </c>
-      <c r="B13" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="C13" s="25">
-        <v>42095</v>
-      </c>
-      <c r="D13" s="24" t="s">
-        <v>61</v>
-      </c>
-      <c r="E13" s="24" t="s">
-        <v>45</v>
-      </c>
-      <c r="F13" s="24" t="s">
-        <v>35</v>
-      </c>
-      <c r="G13" s="24" t="s">
-        <v>46</v>
-      </c>
-      <c r="H13" s="26"/>
-      <c r="I13" s="24" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="24">
-        <v>2592</v>
-      </c>
-      <c r="B14" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="C14" s="25">
-        <v>42095</v>
-      </c>
-      <c r="D14" s="24" t="s">
-        <v>61</v>
-      </c>
-      <c r="E14" s="24" t="s">
-        <v>36</v>
-      </c>
-      <c r="F14" s="24" t="s">
-        <v>35</v>
-      </c>
-      <c r="G14" s="24" t="s">
-        <v>52</v>
-      </c>
-      <c r="H14" s="24" t="s">
-        <v>63</v>
-      </c>
-      <c r="I14" s="26"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="24">
-        <v>2593</v>
-      </c>
-      <c r="B15" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="C15" s="25">
-        <v>42095</v>
-      </c>
-      <c r="D15" s="24" t="s">
-        <v>61</v>
-      </c>
-      <c r="E15" s="24" t="s">
-        <v>45</v>
-      </c>
-      <c r="F15" s="24" t="s">
-        <v>35</v>
-      </c>
-      <c r="G15" s="24" t="s">
-        <v>57</v>
-      </c>
-      <c r="H15" s="26"/>
-      <c r="I15" s="24" t="s">
+      <c r="H15" s="22"/>
+      <c r="I15" s="22" t="s">
         <v>63</v>
       </c>
     </row>

--- a/Mifos Automation Excels/Client/3515-RBI-EI-DB-DL-REC-NON-RNI-CTPD-DL-MD-TR-1-PERIODIC-OVERDUE-FEE-FLAT-PENALTY-FRE-1-Makerepayment1.xlsx
+++ b/Mifos Automation Excels/Client/3515-RBI-EI-DB-DL-REC-NON-RNI-CTPD-DL-MD-TR-1-PERIODIC-OVERDUE-FEE-FLAT-PENALTY-FRE-1-Makerepayment1.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17766"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\mifosx-e2e-testing\Mifos Automation Excels\Client\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="7755" tabRatio="678" activeTab="5"/>
+    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="7755" tabRatio="678" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Input" sheetId="5" r:id="rId1"/>
@@ -217,7 +222,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -376,6 +381,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -423,7 +431,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -456,9 +464,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -491,6 +516,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -823,10 +865,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P14"/>
+  <dimension ref="A1:Q14"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15:XFD15"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="S11" sqref="S11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -844,12 +886,13 @@
     <col min="11" max="11" width="8.140625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="6.5703125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="4.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.7109375" style="22" customWidth="1"/>
+    <col min="15" max="15" width="4.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -889,17 +932,18 @@
       <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="1"/>
+      <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="Q1" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="7"/>
       <c r="B2" s="7"/>
       <c r="C2" s="8">
@@ -926,8 +970,9 @@
       <c r="N2" s="7"/>
       <c r="O2" s="7"/>
       <c r="P2" s="7"/>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q2" s="7"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
         <v>1</v>
       </c>
@@ -965,17 +1010,18 @@
       <c r="M3" s="7">
         <v>0</v>
       </c>
-      <c r="N3" s="7">
-        <v>0</v>
-      </c>
+      <c r="N3" s="7"/>
       <c r="O3" s="7">
         <v>0</v>
       </c>
       <c r="P3" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q3" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
         <v>2</v>
       </c>
@@ -1011,17 +1057,18 @@
       <c r="M4" s="7">
         <v>0</v>
       </c>
-      <c r="N4" s="7">
-        <v>0</v>
-      </c>
+      <c r="N4" s="7"/>
       <c r="O4" s="7">
         <v>0</v>
       </c>
-      <c r="P4" s="10">
+      <c r="P4" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="10">
         <v>3787.72</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <v>3</v>
       </c>
@@ -1057,17 +1104,18 @@
       <c r="M5" s="7">
         <v>0</v>
       </c>
-      <c r="N5" s="7">
-        <v>0</v>
-      </c>
+      <c r="N5" s="7"/>
       <c r="O5" s="7">
         <v>0</v>
       </c>
-      <c r="P5" s="10">
+      <c r="P5" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="10">
         <v>6287.72</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
         <v>4</v>
       </c>
@@ -1103,17 +1151,18 @@
       <c r="M6" s="7">
         <v>0</v>
       </c>
-      <c r="N6" s="7">
-        <v>0</v>
-      </c>
+      <c r="N6" s="7"/>
       <c r="O6" s="7">
         <v>0</v>
       </c>
       <c r="P6" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="7">
         <v>887.72</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
         <v>5</v>
       </c>
@@ -1149,17 +1198,18 @@
       <c r="M7" s="7">
         <v>0</v>
       </c>
-      <c r="N7" s="7">
-        <v>0</v>
-      </c>
+      <c r="N7" s="7"/>
       <c r="O7" s="7">
         <v>0</v>
       </c>
       <c r="P7" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="7">
         <v>887.72</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
         <v>6</v>
       </c>
@@ -1195,17 +1245,18 @@
       <c r="M8" s="7">
         <v>0</v>
       </c>
-      <c r="N8" s="7">
-        <v>0</v>
-      </c>
+      <c r="N8" s="7"/>
       <c r="O8" s="7">
         <v>0</v>
       </c>
       <c r="P8" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="7">
         <v>887.72</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
         <v>7</v>
       </c>
@@ -1241,17 +1292,18 @@
       <c r="M9" s="7">
         <v>0</v>
       </c>
-      <c r="N9" s="7">
-        <v>0</v>
-      </c>
+      <c r="N9" s="7"/>
       <c r="O9" s="7">
         <v>0</v>
       </c>
       <c r="P9" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="7">
         <v>887.72</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
         <v>8</v>
       </c>
@@ -1287,17 +1339,18 @@
       <c r="M10" s="7">
         <v>0</v>
       </c>
-      <c r="N10" s="7">
-        <v>0</v>
-      </c>
+      <c r="N10" s="7"/>
       <c r="O10" s="7">
         <v>0</v>
       </c>
       <c r="P10" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="7">
         <v>887.72</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="7">
         <v>9</v>
       </c>
@@ -1333,17 +1386,18 @@
       <c r="M11" s="7">
         <v>0</v>
       </c>
-      <c r="N11" s="7">
-        <v>0</v>
-      </c>
+      <c r="N11" s="7"/>
       <c r="O11" s="7">
         <v>0</v>
       </c>
       <c r="P11" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="7">
         <v>887.72</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="7">
         <v>10</v>
       </c>
@@ -1379,17 +1433,18 @@
       <c r="M12" s="7">
         <v>0</v>
       </c>
-      <c r="N12" s="7">
-        <v>0</v>
-      </c>
+      <c r="N12" s="7"/>
       <c r="O12" s="7">
         <v>0</v>
       </c>
       <c r="P12" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="7">
         <v>887.72</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="7">
         <v>11</v>
       </c>
@@ -1425,17 +1480,18 @@
       <c r="M13" s="7">
         <v>0</v>
       </c>
-      <c r="N13" s="7">
-        <v>0</v>
-      </c>
+      <c r="N13" s="7"/>
       <c r="O13" s="7">
         <v>0</v>
       </c>
       <c r="P13" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="7">
         <v>887.72</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="7">
         <v>12</v>
       </c>
@@ -1471,13 +1527,14 @@
       <c r="M14" s="7">
         <v>0</v>
       </c>
-      <c r="N14" s="7">
-        <v>0</v>
-      </c>
+      <c r="N14" s="7"/>
       <c r="O14" s="7">
         <v>0</v>
       </c>
       <c r="P14" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="7">
         <v>903.49</v>
       </c>
     </row>
@@ -1822,7 +1879,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
